--- a/装修/装修材料清单.xlsx
+++ b/装修/装修材料清单.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="金额明细清单" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>冷、热水管、电线管</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4个，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>西门子洗碗机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,10 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总价8680</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>科勒橱柜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,6 +145,22 @@
   </si>
   <si>
     <t>必美地板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价8680，烟机:8215，灶具：9G88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSQ24-CA:2698，史密斯直饮水机AR400-A1:5998,前置过滤器APF-G1（金）：1228</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号：SC76M540TI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -196,8 +204,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -505,14 +516,14 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="38.25" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -623,58 +634,64 @@
         <v>352.56</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>6699</v>
       </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>1680</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>18141</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>9924</v>
       </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>1300</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>19473</v>
@@ -682,7 +699,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>2040</v>
@@ -690,7 +707,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>239</v>
@@ -698,7 +715,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>2000</v>
@@ -706,18 +723,18 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>27800</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>1000</v>
@@ -725,7 +742,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>20000</v>
@@ -733,7 +750,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>1000</v>
@@ -741,7 +758,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B40">
         <f>SUM(B2:B39)</f>

--- a/装修/装修材料清单.xlsx
+++ b/装修/装修材料清单.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="装修明细" sheetId="1" r:id="rId1"/>
+    <sheet name="开关插座清单" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="83">
   <si>
     <t>冷、热水管、电线管</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,14 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4个，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>西门子洗碗机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,18 +85,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总价8680</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>科勒橱柜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ao史密斯热水器、末端净水器、前置净水器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>淋浴房</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,39 +101,251 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>物管、水电预缴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物管装修管理费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芬琳漆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tata木门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧派衣柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必美地板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卧床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康耐登</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧床+2个床头柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐桌+4把椅子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付1680</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12升特价款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ao史密斯热水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ao史密斯前置净水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>总金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物管、水电预缴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物管装修管理费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芬琳漆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞宇门窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tata木门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧派衣柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必美地板</t>
+    <t>未付金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花洒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴室柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卧床垫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧床垫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗帘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5孔插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1开5孔插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照明灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1开双控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络插孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2开2控开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1开多控开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视插孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3开2控开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4开2控开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴室摆件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算，博世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算，西门子、博世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣机水龙头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖把池水龙头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房洗衣柜（盆）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶几、电视柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入户锁芯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ao史密斯末端净水器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +353,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,13 +368,48 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -196,8 +424,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -502,255 +741,825 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="38.25" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="48.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1035</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>850</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>380</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>209</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>820</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>500</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B8" s="2">
+        <v>100</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>850</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
+      <c r="B9" s="2">
+        <v>3940</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>420</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1030</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2">
+        <v>344</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2">
+        <v>6699</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2">
+        <v>8680</v>
+      </c>
+      <c r="C14" s="2">
+        <v>7000</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2">
+        <v>18141</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1228</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="2">
+        <v>5998</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2698</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1300</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <v>19473</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2040</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2">
+        <v>239</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2">
+        <v>8000</v>
+      </c>
+      <c r="C23" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2">
+        <v>30000</v>
+      </c>
+      <c r="C24" s="2">
+        <v>30000</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2">
+        <v>6600</v>
+      </c>
+      <c r="C25" s="2">
+        <v>5600</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2">
+        <v>30000</v>
+      </c>
+      <c r="C26" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2">
+        <v>19000</v>
+      </c>
+      <c r="C27" s="2">
+        <v>18000</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="2">
+        <v>18705</v>
+      </c>
+      <c r="C29" s="2">
+        <v>13705</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="2">
+        <v>10112</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2112</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="2">
+        <v>5888</v>
+      </c>
+      <c r="C31" s="2">
+        <v>5888</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C34" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C36" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="2">
+        <v>6000</v>
+      </c>
+      <c r="C37" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="2">
+        <v>7000</v>
+      </c>
+      <c r="C38" s="2">
+        <v>7000</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C39" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1200</v>
+      </c>
+      <c r="C40" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C41" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="2">
         <v>500</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
+      <c r="C43" s="2">
+        <v>500</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="2">
+        <v>15000</v>
+      </c>
+      <c r="C44" s="2">
+        <v>15000</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>3940</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>1030</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>352.56</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>6699</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>1680</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15">
-        <v>18141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16">
-        <v>9924</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17">
-        <v>1300</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18">
-        <v>19473</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21">
+      <c r="C45" s="2">
+        <v>100</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="2">
+        <v>100</v>
+      </c>
+      <c r="C46" s="2">
+        <v>100</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22">
-        <v>27800</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40">
-        <f>SUM(B2:B39)</f>
-        <v>120932.56</v>
-      </c>
+      <c r="C47" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="4">
+        <v>5000</v>
+      </c>
+      <c r="C48" s="4">
+        <v>5000</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="2">
+        <v>400</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="5">
+        <f>SUM(B2:B52)</f>
+        <v>275729</v>
+      </c>
+      <c r="C53" s="5">
+        <f>SUM(C2:C44)</f>
+        <v>152805</v>
+      </c>
+      <c r="D53" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14">
+        <f>SUM(B2:B13)</f>
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/装修/装修材料清单.xlsx
+++ b/装修/装修材料清单.xlsx
@@ -10,12 +10,12 @@
     <sheet name="装修明细" sheetId="1" r:id="rId1"/>
     <sheet name="开关插座清单" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
   <si>
     <t>冷、热水管、电线管</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -346,6 +346,22 @@
   </si>
   <si>
     <t>ao史密斯末端净水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门槛石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小牌子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夹泥浆工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地板砖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -741,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -799,7 +815,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>380</v>
+        <v>544</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -1413,24 +1429,49 @@
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
+      <c r="A51" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="2">
+        <v>160</v>
+      </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="2">
+        <v>69</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="4">
+        <v>240</v>
+      </c>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="5">
-        <f>SUM(B2:B52)</f>
-        <v>275729</v>
-      </c>
-      <c r="C53" s="5">
+      <c r="B55" s="5">
+        <f>SUM(B2:B54)</f>
+        <v>276362</v>
+      </c>
+      <c r="C55" s="5">
         <f>SUM(C2:C44)</f>
         <v>152805</v>
       </c>
-      <c r="D53" s="5"/>
+      <c r="D55" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/装修/装修材料清单.xlsx
+++ b/装修/装修材料清单.xlsx
@@ -9,13 +9,15 @@
   <sheets>
     <sheet name="装修明细" sheetId="1" r:id="rId1"/>
     <sheet name="开关插座清单" sheetId="2" r:id="rId2"/>
+    <sheet name="接房费用" sheetId="3" r:id="rId3"/>
+    <sheet name="预算费用" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
   <si>
     <t>冷、热水管、电线管</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,7 +363,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地板砖</t>
+    <t>水泥河沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飘窗石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改天燃气管道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -757,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -801,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -912,114 +926,105 @@
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="B12" s="2">
-        <v>344</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="B13" s="2">
-        <v>6699</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2">
-        <v>8680</v>
-      </c>
-      <c r="C14" s="2">
-        <v>7000</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="A14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="4">
+        <v>860</v>
+      </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="B15" s="2">
-        <v>18141</v>
+        <v>15000</v>
       </c>
       <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>10800</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B16" s="2">
-        <v>1228</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2">
-        <v>5998</v>
+        <v>344</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2">
-        <v>2698</v>
+        <v>6699</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2">
-        <v>1300</v>
+        <v>8680</v>
       </c>
       <c r="C19" s="2">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2">
-        <v>19473</v>
+        <v>18141</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -1028,10 +1033,10 @@
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="B21" s="2">
-        <v>2040</v>
+        <v>1228</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -1040,10 +1045,10 @@
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2">
-        <v>239</v>
+        <v>5998</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -1052,426 +1057,177 @@
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2">
-        <v>8000</v>
+        <v>2698</v>
       </c>
       <c r="C23" s="2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B24" s="2">
-        <v>30000</v>
+        <v>1300</v>
       </c>
       <c r="C24" s="2">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2">
-        <v>6600</v>
+        <v>239</v>
       </c>
       <c r="C25" s="2">
-        <v>5600</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="C26" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D26" s="2"/>
+        <v>6000</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="C27" s="2">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2">
-        <v>3000</v>
+        <v>7628</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>29</v>
+      <c r="D28" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2">
-        <v>18705</v>
+        <v>27345</v>
       </c>
       <c r="C29" s="2">
-        <v>13705</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2">
-        <v>10112</v>
+        <v>19000</v>
       </c>
       <c r="C30" s="2">
-        <v>2112</v>
-      </c>
-      <c r="D30" s="2"/>
+        <v>18000</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2">
-        <v>5888</v>
+        <v>3000</v>
       </c>
       <c r="C31" s="2">
-        <v>5888</v>
-      </c>
-      <c r="D31" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>2000</v>
+        <v>18705</v>
       </c>
       <c r="C32" s="2">
-        <v>2000</v>
+        <v>13705</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>3000</v>
+        <v>10112</v>
       </c>
       <c r="C33" s="2">
-        <v>3000</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>2112</v>
+      </c>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>3000</v>
+        <v>5888</v>
       </c>
       <c r="C34" s="2">
-        <v>3000</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C35" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="2">
-        <v>5000</v>
-      </c>
-      <c r="C36" s="2">
-        <v>5000</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="2">
-        <v>6000</v>
-      </c>
-      <c r="C37" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="2">
-        <v>7000</v>
-      </c>
-      <c r="C38" s="2">
-        <v>7000</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="2">
-        <v>5000</v>
-      </c>
-      <c r="C39" s="2">
-        <v>5000</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="4">
-        <v>1200</v>
-      </c>
-      <c r="C40" s="4">
-        <v>2000</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="2">
-        <v>5000</v>
-      </c>
-      <c r="C41" s="2">
-        <v>3000</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>5888</v>
+      </c>
+      <c r="D34" s="2"/>
     </row>
     <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" s="2">
-        <v>500</v>
-      </c>
-      <c r="C43" s="2">
-        <v>500</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" s="2">
-        <v>15000</v>
-      </c>
-      <c r="C44" s="2">
-        <v>15000</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" s="2">
-        <v>100</v>
-      </c>
-      <c r="C45" s="2">
-        <v>100</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" s="2">
-        <v>100</v>
-      </c>
-      <c r="C46" s="2">
-        <v>100</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B47" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C47" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" s="4">
-        <v>5000</v>
-      </c>
-      <c r="C48" s="4">
-        <v>5000</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B49" s="2">
-        <v>5000</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B50" s="2">
-        <v>400</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B51" s="2">
-        <v>160</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B52" s="2">
-        <v>69</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B53" s="4">
-        <v>240</v>
-      </c>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
+      <c r="A42" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="5">
-        <f>SUM(B2:B54)</f>
-        <v>276362</v>
-      </c>
-      <c r="C55" s="5">
-        <f>SUM(C2:C44)</f>
-        <v>152805</v>
-      </c>
-      <c r="D55" s="5"/>
+      <c r="B42" s="5">
+        <f>SUM(B2:B34)</f>
+        <v>200842</v>
+      </c>
+      <c r="C42" s="5">
+        <f>SUM(C2:C34)</f>
+        <v>95505</v>
+      </c>
+      <c r="D42" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1603,4 +1359,366 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2">
+        <v>19473</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2040</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6000</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7000</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7000</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1200</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="2">
+        <v>500</v>
+      </c>
+      <c r="C13" s="2">
+        <v>500</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="2">
+        <v>100</v>
+      </c>
+      <c r="C14" s="2">
+        <v>100</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="2">
+        <v>100</v>
+      </c>
+      <c r="C15" s="2">
+        <v>100</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="4">
+        <v>5000</v>
+      </c>
+      <c r="C17" s="4">
+        <v>5000</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="2">
+        <v>400</v>
+      </c>
+      <c r="C19" s="2">
+        <v>400</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22">
+        <f>SUM(B2:B20)</f>
+        <v>55300</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/装修/装修材料清单.xlsx
+++ b/装修/装修材料清单.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="102">
   <si>
     <t>冷、热水管、电线管</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>窗户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tata木门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,10 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>康耐登</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主卧床+2个床头柜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已付0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已付1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,10 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已付1680</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12升特价款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -376,6 +360,70 @@
   </si>
   <si>
     <t>汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊顶木工板、石膏板、线条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊顶扣板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上墙木地板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视柜、茶几、矮柜、边几</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防盗门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跃龙门A316(2050*960)，4层镀锌钢板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗户、厕所门、厨房门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞宇，三轨推拉窗锋景152系列，固定带平开窗锋景102系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西门子（SIEMENS）8套 原装进口 智能洗嵌入式洗碗机 SC76M540TI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康耐登，5355,A位+单+妃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付1680，烟机CXW-200-8215，灶具JZ(Y/T/R)-9G88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF-A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR400-A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JQ24CA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -466,6 +514,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -786,13 +837,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>7</v>
@@ -926,19 +977,19 @@
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B12" s="2">
         <v>160</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B13" s="2">
         <v>69</v>
@@ -948,7 +999,7 @@
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B14" s="4">
         <v>860</v>
@@ -957,7 +1008,7 @@
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2">
         <v>15000</v>
@@ -966,12 +1017,12 @@
         <v>10800</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="2">
         <v>500</v>
@@ -990,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="33" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -1003,7 +1054,9 @@
       <c r="C18" s="2">
         <v>0</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="6" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
@@ -1016,7 +1069,7 @@
         <v>7000</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
@@ -1029,11 +1082,13 @@
       <c r="C20" s="2">
         <v>0</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B21" s="2">
         <v>1228</v>
@@ -1041,11 +1096,13 @@
       <c r="C21" s="2">
         <v>0</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2">
         <v>5998</v>
@@ -1053,11 +1110,13 @@
       <c r="C22" s="2">
         <v>0</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2">
         <v>2698</v>
@@ -1066,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
@@ -1106,12 +1165,12 @@
         <v>6000</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="B27" s="2">
         <v>30000</v>
@@ -1120,12 +1179,12 @@
         <v>30000</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="2">
         <v>7628</v>
@@ -1139,7 +1198,7 @@
     </row>
     <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2">
         <v>27345</v>
@@ -1151,7 +1210,7 @@
     </row>
     <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="2">
         <v>19000</v>
@@ -1160,12 +1219,12 @@
         <v>18000</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="2">
         <v>3000</v>
@@ -1174,12 +1233,12 @@
         <v>0</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="2">
         <v>18705</v>
@@ -1188,12 +1247,12 @@
         <v>13705</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" s="2">
         <v>10112</v>
@@ -1205,7 +1264,7 @@
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" s="2">
         <v>5888</v>
@@ -1215,13 +1274,67 @@
       </c>
       <c r="D34" s="2"/>
     </row>
+    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="4">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="4">
+        <v>12360</v>
+      </c>
+      <c r="D39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="4">
+        <v>4880</v>
+      </c>
+      <c r="D40" t="s">
+        <v>93</v>
+      </c>
+    </row>
     <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B42" s="5">
-        <f>SUM(B2:B34)</f>
-        <v>200842</v>
+        <f>SUM(B2:B40)</f>
+        <v>223877</v>
       </c>
       <c r="C42" s="5">
         <f>SUM(C2:C34)</f>
@@ -1241,7 +1354,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1252,15 +1365,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B2">
         <v>34</v>
@@ -1268,7 +1381,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -1276,7 +1389,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1284,7 +1397,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -1292,7 +1405,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1300,7 +1413,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1308,7 +1421,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1316,7 +1429,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1324,7 +1437,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -1332,7 +1445,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1340,7 +1453,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1348,7 +1461,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <f>SUM(B2:B13)</f>
@@ -1366,7 +1479,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1376,13 +1489,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>7</v>
@@ -1422,21 +1535,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>7</v>
@@ -1444,7 +1557,7 @@
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2">
         <v>2000</v>
@@ -1453,12 +1566,12 @@
         <v>2000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2">
         <v>3000</v>
@@ -1467,12 +1580,12 @@
         <v>3000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2">
         <v>3000</v>
@@ -1481,12 +1594,12 @@
         <v>3000</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2">
         <v>2000</v>
@@ -1495,12 +1608,12 @@
         <v>2000</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2">
         <v>5000</v>
@@ -1509,12 +1622,12 @@
         <v>5000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2">
         <v>6000</v>
@@ -1523,12 +1636,12 @@
         <v>6000</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B8" s="2">
         <v>7000</v>
@@ -1537,12 +1650,12 @@
         <v>7000</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2">
         <v>5000</v>
@@ -1551,12 +1664,12 @@
         <v>5000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B10" s="4">
         <v>1200</v>
@@ -1565,12 +1678,12 @@
         <v>2000</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2">
         <v>5000</v>
@@ -1579,12 +1692,12 @@
         <v>3000</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B12" s="2">
         <v>1000</v>
@@ -1593,12 +1706,12 @@
         <v>1000</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B13" s="2">
         <v>500</v>
@@ -1607,12 +1720,12 @@
         <v>500</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B14" s="2">
         <v>100</v>
@@ -1621,12 +1734,12 @@
         <v>100</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B15" s="2">
         <v>100</v>
@@ -1635,12 +1748,12 @@
         <v>100</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B16" s="2">
         <v>2000</v>
@@ -1649,12 +1762,12 @@
         <v>2000</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B17" s="4">
         <v>5000</v>
@@ -1663,12 +1776,12 @@
         <v>5000</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B18" s="2">
         <v>5000</v>
@@ -1677,12 +1790,12 @@
         <v>5000</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B19" s="2">
         <v>400</v>
@@ -1691,12 +1804,12 @@
         <v>400</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B20" s="4">
         <v>2000</v>
@@ -1705,12 +1818,12 @@
         <v>2000</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B22">
         <f>SUM(B2:B20)</f>

--- a/装修/装修材料清单.xlsx
+++ b/装修/装修材料清单.xlsx
@@ -8,16 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="装修明细" sheetId="1" r:id="rId1"/>
-    <sheet name="开关插座清单" sheetId="2" r:id="rId2"/>
+    <sheet name="预算费用" sheetId="4" r:id="rId2"/>
     <sheet name="接房费用" sheetId="3" r:id="rId3"/>
-    <sheet name="预算费用" sheetId="4" r:id="rId4"/>
+    <sheet name="开关插座清单" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="100">
   <si>
     <t>冷、热水管、电线管</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,15 +319,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>茶几、电视柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入户锁芯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -824,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -977,19 +969,19 @@
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B12" s="2">
         <v>160</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B13" s="2">
         <v>69</v>
@@ -999,7 +991,7 @@
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B14" s="4">
         <v>860</v>
@@ -1022,7 +1014,7 @@
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="2">
         <v>500</v>
@@ -1055,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
@@ -1069,7 +1061,7 @@
         <v>7000</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
@@ -1083,12 +1075,12 @@
         <v>0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B21" s="2">
         <v>1228</v>
@@ -1097,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
@@ -1111,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
@@ -1170,7 +1162,7 @@
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B27" s="2">
         <v>30000</v>
@@ -1179,7 +1171,7 @@
         <v>30000</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
@@ -1247,7 +1239,7 @@
         <v>13705</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
@@ -1276,7 +1268,7 @@
     </row>
     <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B35" s="4">
         <v>110</v>
@@ -1284,7 +1276,7 @@
     </row>
     <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B36" s="4">
         <v>1150</v>
@@ -1292,7 +1284,7 @@
     </row>
     <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B37" s="4">
         <v>1172</v>
@@ -1300,7 +1292,7 @@
     </row>
     <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B38" s="4">
         <v>3363</v>
@@ -1308,24 +1300,27 @@
     </row>
     <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B39" s="4">
         <v>12360</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B40" s="4">
         <v>4880</v>
       </c>
+      <c r="C40">
+        <v>4680</v>
+      </c>
       <c r="D40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
@@ -1337,8 +1332,8 @@
         <v>223877</v>
       </c>
       <c r="C42" s="5">
-        <f>SUM(C2:C34)</f>
-        <v>95505</v>
+        <f>SUM(C2:C40)</f>
+        <v>100185</v>
       </c>
       <c r="D42" s="5"/>
     </row>
@@ -1351,10 +1346,348 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6000</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7000</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7000</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1200</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="2">
+        <v>500</v>
+      </c>
+      <c r="C13" s="2">
+        <v>500</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="2">
+        <v>100</v>
+      </c>
+      <c r="C14" s="2">
+        <v>100</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="2">
+        <v>100</v>
+      </c>
+      <c r="C15" s="2">
+        <v>100</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20">
+        <f>SUM(B2:B18)</f>
+        <v>49900</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2">
+        <v>19473</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2040</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1472,366 +1805,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2">
-        <v>19473</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2040</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="2">
-        <v>3000</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3000</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3000</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3000</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5000</v>
-      </c>
-      <c r="C6" s="2">
-        <v>5000</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="2">
-        <v>6000</v>
-      </c>
-      <c r="C7" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="2">
-        <v>7000</v>
-      </c>
-      <c r="C8" s="2">
-        <v>7000</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="2">
-        <v>5000</v>
-      </c>
-      <c r="C9" s="2">
-        <v>5000</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1200</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2000</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="2">
-        <v>5000</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3000</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="2">
-        <v>500</v>
-      </c>
-      <c r="C13" s="2">
-        <v>500</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="2">
-        <v>100</v>
-      </c>
-      <c r="C14" s="2">
-        <v>100</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="2">
-        <v>100</v>
-      </c>
-      <c r="C15" s="2">
-        <v>100</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="4">
-        <v>5000</v>
-      </c>
-      <c r="C17" s="4">
-        <v>5000</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="2">
-        <v>5000</v>
-      </c>
-      <c r="C18" s="2">
-        <v>5000</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="2">
-        <v>400</v>
-      </c>
-      <c r="C19" s="2">
-        <v>400</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="4">
-        <v>2000</v>
-      </c>
-      <c r="C20" s="4">
-        <v>2000</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22">
-        <f>SUM(B2:B20)</f>
-        <v>55300</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/装修/装修材料清单.xlsx
+++ b/装修/装修材料清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="装修明细" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="98">
   <si>
     <t>冷、热水管、电线管</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -376,6 +376,38 @@
   </si>
   <si>
     <t>汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打墙、搬运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房扣板、厕所吊顶辅料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊顶材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石膏板、木工板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上墙的木地板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必美，进口比利时强化，250/平米</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -771,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -971,72 +1003,64 @@
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B16" s="2">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="B17" s="2">
-        <v>344</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>1150</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="B18" s="2">
-        <v>6699</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
+        <v>1244</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="B19" s="2">
-        <v>8680</v>
-      </c>
-      <c r="C19" s="2">
-        <v>7000</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2">
-        <v>18141</v>
+        <v>344</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="B21" s="2">
-        <v>1228</v>
+        <v>6699</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -1045,50 +1069,48 @@
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B22" s="2">
-        <v>5998</v>
+        <v>8680</v>
       </c>
       <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2"/>
+        <v>7000</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B23" s="2">
-        <v>2698</v>
+        <v>18141</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="B24" s="2">
-        <v>1300</v>
+        <v>1228</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2">
-        <v>239</v>
+        <v>5998</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -1097,137 +1119,212 @@
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2">
-        <v>8000</v>
+        <v>2698</v>
       </c>
       <c r="C26" s="2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B27" s="2">
-        <v>30000</v>
+        <v>1300</v>
       </c>
       <c r="C27" s="2">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B28" s="2">
-        <v>7628</v>
+        <v>239</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
       </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2">
-        <v>27345</v>
+        <v>8000</v>
       </c>
       <c r="C29" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D29" s="2"/>
+        <v>6000</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B30" s="2">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="C30" s="2">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B31" s="2">
-        <v>3000</v>
+        <v>7628</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>29</v>
+      <c r="D31" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B32" s="2">
-        <v>18705</v>
+        <v>27345</v>
       </c>
       <c r="C32" s="2">
-        <v>13705</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B33" s="2">
-        <v>10112</v>
+        <v>19000</v>
       </c>
       <c r="C33" s="2">
-        <v>2112</v>
-      </c>
-      <c r="D33" s="2"/>
+        <v>18000</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="2">
+        <v>18705</v>
+      </c>
+      <c r="C35" s="2">
+        <v>13705</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="2">
+        <v>10112</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2112</v>
+      </c>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B37" s="2">
         <v>5888</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C37" s="2">
         <v>5888</v>
       </c>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="4">
+        <v>3363</v>
+      </c>
+      <c r="D41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="5">
-        <f>SUM(B2:B34)</f>
-        <v>200842</v>
-      </c>
-      <c r="C42" s="5">
-        <f>SUM(C2:C34)</f>
+      <c r="B45" s="5">
+        <f>SUM(B2:B38)</f>
+        <v>205346</v>
+      </c>
+      <c r="C45" s="5">
+        <f>SUM(C2:C37)</f>
         <v>95505</v>
       </c>
-      <c r="D42" s="5"/>
+      <c r="D45" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1422,11 +1519,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">

--- a/装修/装修材料清单.xlsx
+++ b/装修/装修材料清单.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="100">
   <si>
     <t>冷、热水管、电线管</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已付1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已付2000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,10 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12升特价款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ao史密斯热水器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -339,10 +331,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>水泥河沙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>飘窗石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -367,10 +355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上墙木地板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电视柜、茶几、矮柜、边几</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -411,11 +395,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>谷仓门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>230*60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定金1000，上墙地板3363</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JQ24CA、12升特价款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AR400-A1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JQ24CA</t>
+    <t>1.8米</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -814,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -829,13 +829,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>7</v>
@@ -958,7 +958,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="2">
-        <v>1030</v>
+        <v>1890</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -969,373 +969,388 @@
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B12" s="2">
         <v>160</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B13" s="2">
         <v>69</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="4">
-        <v>860</v>
-      </c>
-      <c r="D14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4200</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="B15" s="2">
-        <v>15000</v>
+        <v>672</v>
       </c>
       <c r="C15" s="2">
-        <v>10800</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>500</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+        <v>344</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>344</v>
+        <v>6699</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>8680</v>
+      </c>
+      <c r="C18" s="2">
+        <v>7000</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>18141</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1228</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="2">
+        <v>5998</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="33" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2">
-        <v>6699</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2">
-        <v>8680</v>
-      </c>
-      <c r="C19" s="2">
-        <v>7000</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="B22" s="2">
+        <v>2698</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1300</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>239</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>8000</v>
+      </c>
+      <c r="C25" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="2">
+        <v>30000</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2">
+        <v>7628</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2">
+        <v>27345</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2">
+        <v>17163</v>
+      </c>
+      <c r="C29" s="2">
+        <v>12800</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2">
-        <v>18141</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1228</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="2">
-        <v>5998</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="E29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>18705</v>
+      </c>
+      <c r="C31" s="2">
+        <v>13705</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>10112</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2112</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="2">
-        <v>2698</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1300</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="2">
-        <v>239</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="2">
-        <v>8000</v>
-      </c>
-      <c r="C26" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" s="2">
-        <v>30000</v>
-      </c>
-      <c r="C27" s="2">
-        <v>30000</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="2">
-        <v>7628</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="2">
-        <v>27345</v>
-      </c>
-      <c r="C29" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="2">
-        <v>19000</v>
-      </c>
-      <c r="C30" s="2">
-        <v>18000</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="2">
-        <v>3000</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="2">
-        <v>18705</v>
-      </c>
-      <c r="C32" s="2">
-        <v>13705</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>10112</v>
+        <v>5888</v>
       </c>
       <c r="C33" s="2">
-        <v>2112</v>
+        <v>5888</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="2">
-        <v>5888</v>
-      </c>
-      <c r="C34" s="2">
-        <v>5888</v>
-      </c>
-      <c r="D34" s="2"/>
+      <c r="A34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="4">
+        <v>110</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B35" s="4">
-        <v>110</v>
+        <v>1150</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B36" s="4">
-        <v>1150</v>
+        <v>1172</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B37" s="4">
-        <v>1172</v>
+        <v>12360</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="4">
+        <v>4880</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
         <v>87</v>
-      </c>
-      <c r="B38" s="4">
-        <v>3363</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B39" s="4">
-        <v>12360</v>
-      </c>
-      <c r="D39" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="4">
-        <v>4880</v>
-      </c>
-      <c r="C40">
-        <v>4680</v>
-      </c>
-      <c r="D40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="5">
-        <f>SUM(B2:B40)</f>
-        <v>223877</v>
-      </c>
-      <c r="C42" s="5">
-        <f>SUM(C2:C40)</f>
-        <v>100185</v>
-      </c>
-      <c r="D42" s="5"/>
+        <v>2370</v>
+      </c>
+      <c r="C39">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="5">
+        <f>SUM(B2:B39)</f>
+        <v>210419</v>
+      </c>
+      <c r="C41" s="5">
+        <f>SUM(C2:C38)</f>
+        <v>49505</v>
+      </c>
+      <c r="D41" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1349,23 +1364,24 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>7</v>
@@ -1373,7 +1389,7 @@
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2">
         <v>2000</v>
@@ -1382,12 +1398,12 @@
         <v>2000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2">
         <v>3000</v>
@@ -1396,12 +1412,12 @@
         <v>3000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2">
         <v>3000</v>
@@ -1410,12 +1426,12 @@
         <v>3000</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2">
         <v>2000</v>
@@ -1424,12 +1440,12 @@
         <v>2000</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2">
         <v>5000</v>
@@ -1438,12 +1454,12 @@
         <v>5000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2">
         <v>6000</v>
@@ -1452,12 +1468,12 @@
         <v>6000</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2">
         <v>7000</v>
@@ -1466,12 +1482,12 @@
         <v>7000</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2">
         <v>5000</v>
@@ -1480,12 +1496,12 @@
         <v>5000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10" s="4">
         <v>1200</v>
@@ -1494,12 +1510,12 @@
         <v>2000</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2">
         <v>5000</v>
@@ -1508,12 +1524,12 @@
         <v>3000</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="2">
         <v>1000</v>
@@ -1522,12 +1538,12 @@
         <v>1000</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="2">
         <v>500</v>
@@ -1536,12 +1552,12 @@
         <v>500</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="2">
         <v>100</v>
@@ -1550,12 +1566,12 @@
         <v>100</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B15" s="2">
         <v>100</v>
@@ -1564,12 +1580,12 @@
         <v>100</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B16" s="2">
         <v>2000</v>
@@ -1578,12 +1594,12 @@
         <v>2000</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B17" s="2">
         <v>5000</v>
@@ -1592,12 +1608,12 @@
         <v>5000</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B18" s="4">
         <v>2000</v>
@@ -1606,14 +1622,14 @@
         <v>2000</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20">
+        <v>80</v>
+      </c>
+      <c r="B20" s="2">
         <f>SUM(B2:B18)</f>
         <v>49900</v>
       </c>
@@ -1630,23 +1646,23 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>7</v>
@@ -1687,7 +1703,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1698,15 +1714,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2">
         <v>34</v>
@@ -1714,7 +1730,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -1722,7 +1738,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1730,7 +1746,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -1738,7 +1754,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1746,7 +1762,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1754,7 +1770,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1762,7 +1778,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1770,7 +1786,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -1778,7 +1794,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1786,7 +1802,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1794,7 +1810,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14">
         <f>SUM(B2:B13)</f>

--- a/装修/装修材料清单.xlsx
+++ b/装修/装修材料清单.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
   <si>
     <t>冷、热水管、电线管</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,14 +36,6 @@
   </si>
   <si>
     <t>电线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运渣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发商外包的运渣公司收取</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -814,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -829,16 +821,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
@@ -858,14 +850,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>650</v>
+        <v>1150</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -905,66 +895,68 @@
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3940</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
-        <v>100</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>3940</v>
+        <v>420</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1890</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
-        <v>420</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="B11" s="2">
-        <v>1890</v>
+        <v>160</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
@@ -972,244 +964,244 @@
         <v>75</v>
       </c>
       <c r="B12" s="2">
-        <v>160</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2">
-        <v>69</v>
+        <v>4200</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="B14" s="2">
-        <v>4200</v>
+        <v>672</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
       </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2">
-        <v>672</v>
+        <v>344</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
       </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="D15" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
+        <v>6699</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
-        <v>344</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="B17" s="2">
-        <v>6699</v>
+        <v>8680</v>
       </c>
       <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6" t="s">
+        <v>7000</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2">
-        <v>8680</v>
+        <v>18141</v>
       </c>
       <c r="C18" s="2">
-        <v>7000</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2">
-        <v>18141</v>
+        <v>1228</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B20" s="2">
-        <v>1228</v>
+        <v>5998</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2">
-        <v>5998</v>
+        <v>2698</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B22" s="2">
-        <v>2698</v>
+        <v>1300</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2">
-        <v>1300</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2">
-        <v>239</v>
+        <v>8000</v>
       </c>
       <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2"/>
+        <v>6000</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B25" s="2">
-        <v>8000</v>
+        <v>30000</v>
       </c>
       <c r="C25" s="2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>30000</v>
+        <v>7628</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>89</v>
+      <c r="D26" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>7628</v>
+        <v>27345</v>
       </c>
       <c r="C27" s="2">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>27345</v>
+        <v>17163</v>
       </c>
       <c r="C28" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D28" s="2"/>
+        <v>12800</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B29" s="2">
-        <v>17163</v>
-      </c>
-      <c r="C29" s="2">
-        <v>12800</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
@@ -1217,61 +1209,58 @@
         <v>27</v>
       </c>
       <c r="B30" s="2">
-        <v>3000</v>
+        <v>18705</v>
       </c>
       <c r="C30" s="2">
-        <v>0</v>
+        <v>13705</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2">
-        <v>18705</v>
+        <v>10112</v>
       </c>
       <c r="C31" s="2">
-        <v>13705</v>
+        <v>2112</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="2">
-        <v>10112</v>
+        <v>5888</v>
       </c>
       <c r="C32" s="2">
-        <v>2112</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>99</v>
-      </c>
+        <v>5888</v>
+      </c>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2">
-        <v>5888</v>
-      </c>
-      <c r="C33" s="2">
-        <v>5888</v>
-      </c>
-      <c r="D33" s="2"/>
+      <c r="A33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="4">
+        <v>110</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B34" s="4">
-        <v>110</v>
+        <v>1150</v>
       </c>
       <c r="C34" s="4">
         <v>0</v>
@@ -1279,10 +1268,10 @@
     </row>
     <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B35" s="4">
-        <v>1150</v>
+        <v>1172</v>
       </c>
       <c r="C35" s="4">
         <v>0</v>
@@ -1290,13 +1279,16 @@
     </row>
     <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="4">
+        <v>12360</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
         <v>83</v>
-      </c>
-      <c r="B36" s="4">
-        <v>1172</v>
-      </c>
-      <c r="C36" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
@@ -1304,7 +1296,7 @@
         <v>84</v>
       </c>
       <c r="B37" s="4">
-        <v>12360</v>
+        <v>4880</v>
       </c>
       <c r="C37" s="4">
         <v>0</v>
@@ -1315,42 +1307,28 @@
     </row>
     <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B38" s="4">
-        <v>4880</v>
-      </c>
-      <c r="C38" s="4">
-        <v>0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" s="4">
         <v>2370</v>
       </c>
-      <c r="C39">
+      <c r="C38">
         <v>1350</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="5">
-        <f>SUM(B2:B39)</f>
+    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="5">
+        <f>SUM(B2:B38)</f>
         <v>210419</v>
       </c>
-      <c r="C41" s="5">
-        <f>SUM(C2:C38)</f>
+      <c r="C40" s="5">
+        <f>SUM(C2:C37)</f>
         <v>49505</v>
       </c>
-      <c r="D41" s="5"/>
+      <c r="D40" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1375,21 +1353,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2">
         <v>2000</v>
@@ -1398,12 +1376,12 @@
         <v>2000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2">
         <v>3000</v>
@@ -1412,12 +1390,12 @@
         <v>3000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2">
         <v>3000</v>
@@ -1426,12 +1404,12 @@
         <v>3000</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2">
         <v>2000</v>
@@ -1440,12 +1418,12 @@
         <v>2000</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" s="2">
         <v>5000</v>
@@ -1454,12 +1432,12 @@
         <v>5000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2">
         <v>6000</v>
@@ -1468,12 +1446,12 @@
         <v>6000</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2">
         <v>7000</v>
@@ -1482,12 +1460,12 @@
         <v>7000</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2">
         <v>5000</v>
@@ -1496,12 +1474,12 @@
         <v>5000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10" s="4">
         <v>1200</v>
@@ -1510,12 +1488,12 @@
         <v>2000</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B11" s="2">
         <v>5000</v>
@@ -1524,12 +1502,12 @@
         <v>3000</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12" s="2">
         <v>1000</v>
@@ -1538,12 +1516,12 @@
         <v>1000</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="2">
         <v>500</v>
@@ -1552,12 +1530,12 @@
         <v>500</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14" s="2">
         <v>100</v>
@@ -1566,12 +1544,12 @@
         <v>100</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B15" s="2">
         <v>100</v>
@@ -1580,12 +1558,12 @@
         <v>100</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16" s="2">
         <v>2000</v>
@@ -1594,12 +1572,12 @@
         <v>2000</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B17" s="2">
         <v>5000</v>
@@ -1608,12 +1586,12 @@
         <v>5000</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B18" s="4">
         <v>2000</v>
@@ -1622,12 +1600,12 @@
         <v>2000</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B20" s="2">
         <f>SUM(B2:B18)</f>
@@ -1656,21 +1634,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2">
         <v>19473</v>
@@ -1682,7 +1660,7 @@
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2">
         <v>2040</v>
@@ -1714,15 +1692,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2">
         <v>34</v>
@@ -1730,7 +1708,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -1738,7 +1716,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1746,7 +1724,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -1754,7 +1732,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1762,7 +1740,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1770,7 +1748,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1778,7 +1756,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1786,7 +1764,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -1794,7 +1772,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1802,7 +1780,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1810,7 +1788,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <f>SUM(B2:B13)</f>

--- a/装修/装修材料清单.xlsx
+++ b/装修/装修材料清单.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="99">
   <si>
     <t>冷、热水管、电线管</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,10 +367,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>飞宇，三轨推拉窗锋景152系列，固定带平开窗锋景102系列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>西门子（SIEMENS）8套 原装进口 智能洗嵌入式洗碗机 SC76M540TI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -408,6 +404,14 @@
   </si>
   <si>
     <t>1.8米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷漆师傅车费和饭钱300，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞宇，三轨推拉窗锋景152系列，固定带平开窗锋景102系列。厕所门赠送，没收加色费，在29100的基础上又优惠了一些。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -808,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -976,13 +980,13 @@
         <v>46</v>
       </c>
       <c r="B13" s="2">
-        <v>4200</v>
+        <v>4500</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
       </c>
-      <c r="D13" s="2">
-        <v>0</v>
+      <c r="D13" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
@@ -1022,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
@@ -1036,7 +1040,7 @@
         <v>7000</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
@@ -1062,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
@@ -1076,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
@@ -1090,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
@@ -1133,18 +1137,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="33" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B25" s="2">
-        <v>30000</v>
+        <v>26800</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>87</v>
+      <c r="D25" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
@@ -1184,10 +1188,10 @@
         <v>12800</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
@@ -1215,7 +1219,7 @@
         <v>13705</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
@@ -1229,7 +1233,7 @@
         <v>2112</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
@@ -1307,7 +1311,7 @@
     </row>
     <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B38" s="4">
         <v>2370</v>
@@ -1322,7 +1326,7 @@
       </c>
       <c r="B40" s="5">
         <f>SUM(B2:B38)</f>
-        <v>210419</v>
+        <v>207519</v>
       </c>
       <c r="C40" s="5">
         <f>SUM(C2:C37)</f>

--- a/装修/装修材料清单.xlsx
+++ b/装修/装修材料清单.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="102">
   <si>
     <t>冷、热水管、电线管</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,6 +412,18 @@
   </si>
   <si>
     <t>飞宇，三轨推拉窗锋景152系列，固定带平开窗锋景102系列。厕所门赠送，没收加色费，在29100的基础上又优惠了一些。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石膏线条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗台石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -810,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -940,7 +952,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>1890</v>
+        <v>1940</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -1320,19 +1332,43 @@
         <v>1350</v>
       </c>
     </row>
+    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="4">
+        <v>400</v>
+      </c>
+    </row>
     <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="5">
-        <f>SUM(B2:B38)</f>
-        <v>207519</v>
-      </c>
-      <c r="C40" s="5">
+      <c r="B43" s="5">
+        <f>SUM(B2:B41)</f>
+        <v>208657</v>
+      </c>
+      <c r="C43" s="5">
         <f>SUM(C2:C37)</f>
         <v>49505</v>
       </c>
-      <c r="D40" s="5"/>
+      <c r="D43" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/装修/装修材料清单.xlsx
+++ b/装修/装修材料清单.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="装修明细" sheetId="1" r:id="rId1"/>
     <sheet name="预算费用" sheetId="4" r:id="rId2"/>
     <sheet name="接房费用" sheetId="3" r:id="rId3"/>
     <sheet name="开关插座清单" sheetId="2" r:id="rId4"/>
+    <sheet name="配件采购清单" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="125">
   <si>
     <t>冷、热水管、电线管</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,10 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -424,6 +421,102 @@
   </si>
   <si>
     <t>玻璃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防水盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石膏灰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科勒坐便器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科勒花洒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科勒浴室柜、龙头、镜柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科勒浴室柜排水管（铜）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科勒浴室柜洗脸盆角阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷、热各1个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科勒坐便器软管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科勒坐便器角阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科勒坐便器密封圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未付金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热水器角阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗菜盆角阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣机龙头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整为37</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,7 +524,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,6 +562,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -479,18 +579,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -498,25 +598,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -822,553 +984,597 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="38.25" customWidth="1"/>
-    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="8.25" customWidth="1"/>
     <col min="4" max="4" width="48.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
+      <c r="D1" s="7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10">
         <v>1035</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2"/>
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="10">
         <v>1150</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2"/>
+      <c r="C3" s="10">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="10">
         <v>544</v>
       </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2"/>
+      <c r="C4" s="10">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="10">
         <v>209</v>
       </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2"/>
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="10">
         <v>820</v>
       </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2"/>
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="10">
         <v>100</v>
       </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2"/>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="10">
         <v>3940</v>
       </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="10">
         <v>420</v>
       </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2"/>
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="10">
         <v>1940</v>
       </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="10">
+        <v>160</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="2">
-        <v>160</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="B12" s="10">
         <v>69</v>
       </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2"/>
+      <c r="C12" s="10">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="10">
         <v>4500</v>
       </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="10">
+        <v>672</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10">
+        <v>344</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="10">
+        <v>6699</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="10">
+        <v>8680</v>
+      </c>
+      <c r="C17" s="10">
+        <v>7000</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="10">
+        <v>18141</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="10">
+        <v>1228</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="10">
+        <v>5998</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="10">
+        <v>2698</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="10">
+        <v>1300</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="10">
+        <v>239</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="10">
+        <v>8000</v>
+      </c>
+      <c r="C24" s="10">
+        <v>6000</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="33" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="10">
+        <v>26800</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="2">
-        <v>672</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2">
-        <v>344</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2">
-        <v>6699</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6" t="s">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="10">
+        <v>7628</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="10">
+        <v>27345</v>
+      </c>
+      <c r="C27" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="10">
+        <v>17163</v>
+      </c>
+      <c r="C28" s="10">
+        <v>12800</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="10">
+        <v>3000</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="10">
+        <v>18705</v>
+      </c>
+      <c r="C30" s="10">
+        <v>13705</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2">
-        <v>8680</v>
-      </c>
-      <c r="C17" s="2">
-        <v>7000</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2">
-        <v>18141</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1228</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2" t="s">
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="10">
+        <v>10112</v>
+      </c>
+      <c r="C31" s="10">
+        <v>2112</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="10">
+        <v>5888</v>
+      </c>
+      <c r="C32" s="10">
+        <v>5888</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="11">
+        <v>110</v>
+      </c>
+      <c r="C33" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="11">
+        <v>1150</v>
+      </c>
+      <c r="C34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="11">
+        <v>1172</v>
+      </c>
+      <c r="C35" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="11">
+        <v>12360</v>
+      </c>
+      <c r="C36" s="11">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="11">
+        <v>4880</v>
+      </c>
+      <c r="C37" s="11">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="2">
-        <v>5998</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="2">
-        <v>2698</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1300</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="2">
-        <v>239</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="2">
-        <v>8000</v>
-      </c>
-      <c r="C24" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="33" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="2">
-        <v>26800</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="B38" s="11">
+        <v>2370</v>
+      </c>
+      <c r="C38" s="12">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="2">
-        <v>7628</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2">
-        <v>27345</v>
-      </c>
-      <c r="C27" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="2">
-        <v>17163</v>
-      </c>
-      <c r="C28" s="2">
-        <v>12800</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="2">
-        <v>3000</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="2">
-        <v>18705</v>
-      </c>
-      <c r="C30" s="2">
-        <v>13705</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="2">
-        <v>10112</v>
-      </c>
-      <c r="C31" s="2">
-        <v>2112</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="2">
-        <v>5888</v>
-      </c>
-      <c r="C32" s="2">
-        <v>5888</v>
-      </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="4">
-        <v>110</v>
-      </c>
-      <c r="C33" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="4">
-        <v>1150</v>
-      </c>
-      <c r="C34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" s="4">
-        <v>1172</v>
-      </c>
-      <c r="C35" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" s="4">
-        <v>12360</v>
-      </c>
-      <c r="C36" s="4">
-        <v>0</v>
-      </c>
-      <c r="D36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="4">
-        <v>4880</v>
-      </c>
-      <c r="C37" s="4">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" s="4">
-        <v>2370</v>
-      </c>
-      <c r="C38">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
+      <c r="B39" s="11">
+        <v>400</v>
+      </c>
+      <c r="C39" s="12"/>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
+      <c r="B40" s="11">
+        <v>450</v>
+      </c>
+      <c r="C40" s="12"/>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="4">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" s="4">
+      <c r="B41" s="11">
         <v>238</v>
       </c>
+      <c r="C41" s="12"/>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="11">
+        <v>48</v>
+      </c>
+      <c r="C42" s="12"/>
     </row>
     <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="11">
+        <v>2490</v>
+      </c>
+      <c r="C43" s="12"/>
+    </row>
+    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="11">
+        <v>3790</v>
+      </c>
+      <c r="C44" s="12"/>
+    </row>
+    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="11">
+        <v>4450</v>
+      </c>
+      <c r="C45" s="12"/>
+    </row>
+    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="5">
-        <f>SUM(B2:B41)</f>
-        <v>208657</v>
-      </c>
-      <c r="C43" s="5">
+      <c r="B48" s="3">
+        <f>SUM(B2:B45)</f>
+        <v>219435</v>
+      </c>
+      <c r="C48" s="3">
         <f>SUM(C2:C37)</f>
         <v>49505</v>
       </c>
-      <c r="D43" s="5"/>
+      <c r="D48" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1382,7 +1588,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1391,266 +1597,274 @@
     <col min="4" max="4" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>2000</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>2000</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>3000</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>3000</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>3000</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>3000</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>2000</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>2000</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>5000</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>5000</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>6000</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>6000</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2">
-        <v>7000</v>
-      </c>
-      <c r="C8" s="2">
-        <v>7000</v>
-      </c>
-      <c r="D8" s="2" t="s">
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1200</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="1">
+        <v>500</v>
+      </c>
+      <c r="C13" s="1">
+        <v>500</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="B14" s="1">
+        <v>100</v>
+      </c>
+      <c r="C14" s="1">
+        <v>100</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="1">
+        <v>100</v>
+      </c>
+      <c r="C15" s="1">
+        <v>100</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="1">
         <v>5000</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C17" s="1">
         <v>5000</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1200</v>
-      </c>
-      <c r="C10" s="4">
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="2">
         <v>2000</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="C18" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="2">
-        <v>5000</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3000</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="2">
-        <v>500</v>
-      </c>
-      <c r="C13" s="2">
-        <v>500</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="2">
-        <v>100</v>
-      </c>
-      <c r="C14" s="2">
-        <v>100</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="2">
-        <v>100</v>
-      </c>
-      <c r="C15" s="2">
-        <v>100</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="2">
-        <v>5000</v>
-      </c>
-      <c r="C17" s="2">
-        <v>5000</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="4">
-        <v>2000</v>
-      </c>
-      <c r="C18" s="4">
-        <v>2000</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>45</v>
-      </c>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="2">
+      <c r="A20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="1">
         <f>SUM(B2:B18)</f>
         <v>49900</v>
       </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1664,7 +1878,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1672,43 +1886,43 @@
     <col min="1" max="1" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>19473</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2"/>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>2040</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2"/>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1718,125 +1932,274 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.875" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="3" max="4" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="8">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="C2" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="C3" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="8">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="8">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="8">
+        <v>4</v>
+      </c>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B4">
+      <c r="B12" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="8">
+        <v>5</v>
+      </c>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B14">
-        <f>SUM(B2:B13)</f>
-        <v>63</v>
-      </c>
+      <c r="B15" s="8">
+        <f>SUM(B2:B14)</f>
+        <v>68</v>
+      </c>
+      <c r="C15" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="27.75" customWidth="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="8">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/装修/装修材料清单.xlsx
+++ b/装修/装修材料清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="装修明细" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="132">
   <si>
     <t>冷、热水管、电线管</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已付2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,18 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>花洒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马桶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浴室柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>次卧床垫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -212,15 +196,239 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>5孔插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1开5孔插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1开双控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络插孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2开2控开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1开多控开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视插孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3开2控开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4开2控开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算，博世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算，西门子、博世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖把池水龙头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房洗衣柜（盆）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ao史密斯末端净水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门槛石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小牌子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夹泥浆工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改天燃气管道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>汇总</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5孔插座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1开5孔插座</t>
+    <t>钻孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊顶木工板、石膏板、线条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊顶扣板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视柜、茶几、矮柜、边几</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防盗门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跃龙门A316(2050*960)，4层镀锌钢板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗户、厕所门、厨房门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西门子（SIEMENS）8套 原装进口 智能洗嵌入式洗碗机 SC76M540TI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康耐登，5355,A位+单+妃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付1680，烟机CXW-200-8215，灶具JZ(Y/T/R)-9G88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF-A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷仓门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>230*60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定金1000，上墙地板3363</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JQ24CA、12升特价款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR400-A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷漆师傅车费和饭钱300，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞宇，三轨推拉窗锋景152系列，固定带平开窗锋景102系列。厕所门赠送，没收加色费，在29100的基础上又优惠了一些。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石膏线条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗台石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防水盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石膏灰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科勒坐便器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科勒花洒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科勒浴室柜、龙头、镜柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科勒浴室柜排水管（铜）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科勒浴室柜洗脸盆角阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷、热各1个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科勒坐便器软管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科勒坐便器角阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科勒坐便器密封圈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -228,219 +436,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开关插座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>照明灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浴霸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1开双控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络插孔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2开2控开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1开多控开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电视插孔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调插座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3开2控开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4开2控开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浴室摆件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预算，博世</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预算，西门子、博世</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗衣机水龙头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拖把池水龙头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨房洗衣柜（盆）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ao史密斯末端净水器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门槛石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小牌子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夹泥浆工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飘窗石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>改天燃气管道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻孔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吊顶木工板、石膏板、线条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吊顶扣板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电视柜、茶几、矮柜、边几</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲美</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防盗门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跃龙门A316(2050*960)，4层镀锌钢板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗户、厕所门、厨房门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西门子（SIEMENS）8套 原装进口 智能洗嵌入式洗碗机 SC76M540TI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>康耐登，5355,A位+单+妃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已付1680，烟机CXW-200-8215，灶具JZ(Y/T/R)-9G88</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APF-A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谷仓门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>230*60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定金1000，上墙地板3363</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JQ24CA、12升特价款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AR400-A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.8米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷漆师傅车费和饭钱300，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞宇，三轨推拉窗锋景152系列，固定带平开窗锋景102系列。厕所门赠送，没收加色费，在29100的基础上又优惠了一些。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石膏线条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗台石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玻璃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防水盒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石膏灰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科勒坐便器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科勒花洒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科勒浴室柜、龙头、镜柜</t>
+    <t>未付金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -448,54 +444,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>科勒浴室柜排水管（铜）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科勒浴室柜洗脸盆角阀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷、热各1个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科勒坐便器软管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科勒坐便器角阀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科勒坐便器密封圈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未付金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>热水器角阀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -517,6 +473,109 @@
   </si>
   <si>
     <t>调整为37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞利浦（PHILIPS）厨新面板灯 厨房灯LED集成吊顶灯 平板灯铝扣板22W冷白光300*600mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的 Midea 照明 LED免拆吸顶灯 卧室灯书房灯具 全白 10瓦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>施耐德（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Schneider</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）开关插座</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞利浦 集成吊顶灯led 厨房浴室卫生间灯平板灯面板灯铝扣板吸顶灯 超薄嵌入式办公室照明 厨新面板灯12W 30*30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷士（NVC）镜前灯led卫生间浴室壁灯梳妆台化妆镜柜防水雾现代时尚简约洗漱间照明灯具灯饰 8W 灯长55.00cm 白光 适21厘米内厚镜柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱斯兰LED明装射灯现代背景射灯简约电视背景墙灯轨道射灯XSD100 小号3w黑色 白光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥普（AUPU)浴霸 QDP6022A(白色) 集成吊顶浴霸 多功能大风暖薄浴霸 300*600 LED灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧琳毛巾架 浴室卫浴挂件 不锈钢浴巾架毛巾杆 卫生间挂件五金挂件套装 不锈钢三件套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞利浦 筒灯led 客厅天花灯小开孔嵌入式超薄防雾筒射灯7.5 3.5w5w9w孔桶灯 闪旭二代 -6500K白光 2.5寸 3.5W开孔80mm 光照面积4平方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜水艇（Submarine）SQ-4 防臭下水管 铜质加厚管壁 面盆防臭排水管 下水器水管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜水艇（Submarine）FBA-30 304#不锈钢防爆上水软管 进水管/30cm/面盆马桶上水管 全新款！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜水艇（Submarine） NM-1 法兰圈坐厕密封圈 座便密封圈防臭防渗漏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜水艇（Submarine）全铜角阀7件套餐 全铜拉丝标准4分陶瓷阀芯 三角阀 八字阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜水艇（Submarine） L701X 洗衣机水嘴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色搞错了，总共只给了450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +583,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,6 +627,21 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -647,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -679,6 +753,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -984,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1000,16 +1083,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="D1" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
@@ -1041,7 +1124,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="10">
-        <v>544</v>
+        <v>687</v>
       </c>
       <c r="C4" s="10">
         <v>0</v>
@@ -1126,7 +1209,7 @@
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B11" s="10">
         <v>160</v>
@@ -1135,12 +1218,12 @@
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B12" s="10">
         <v>69</v>
@@ -1152,7 +1235,7 @@
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B13" s="10">
         <v>4500</v>
@@ -1161,12 +1244,12 @@
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B14" s="10">
         <v>672</v>
@@ -1187,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.35">
@@ -1201,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
@@ -1212,10 +1295,10 @@
         <v>8680</v>
       </c>
       <c r="C17" s="10">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
@@ -1232,7 +1315,7 @@
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="10">
         <v>1228</v>
@@ -1241,12 +1324,12 @@
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B20" s="10">
         <v>5998</v>
@@ -1255,12 +1338,12 @@
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="10">
         <v>2698</v>
@@ -1269,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
@@ -1303,18 +1386,18 @@
         <v>21</v>
       </c>
       <c r="B24" s="10">
-        <v>8000</v>
+        <v>11349</v>
       </c>
       <c r="C24" s="10">
-        <v>6000</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="D24" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="33" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B25" s="10">
         <v>26800</v>
@@ -1323,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
@@ -1363,10 +1446,10 @@
         <v>12800</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
@@ -1394,7 +1477,7 @@
         <v>13705</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
@@ -1408,7 +1491,7 @@
         <v>2112</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
@@ -1425,7 +1508,7 @@
     </row>
     <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B33" s="11">
         <v>110</v>
@@ -1436,7 +1519,7 @@
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B34" s="11">
         <v>1150</v>
@@ -1447,7 +1530,7 @@
     </row>
     <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B35" s="11">
         <v>1172</v>
@@ -1458,7 +1541,7 @@
     </row>
     <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B36" s="11">
         <v>12360</v>
@@ -1467,12 +1550,12 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B37" s="11">
         <v>4880</v>
@@ -1481,12 +1564,12 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B38" s="11">
         <v>2370</v>
@@ -1497,7 +1580,7 @@
     </row>
     <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B39" s="11">
         <v>400</v>
@@ -1506,16 +1589,19 @@
     </row>
     <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B40" s="11">
         <v>450</v>
       </c>
       <c r="C40" s="12"/>
+      <c r="D40" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B41" s="11">
         <v>238</v>
@@ -1524,7 +1610,7 @@
     </row>
     <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B42" s="11">
         <v>48</v>
@@ -1533,7 +1619,7 @@
     </row>
     <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B43" s="11">
         <v>2490</v>
@@ -1542,7 +1628,7 @@
     </row>
     <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B44" s="11">
         <v>3790</v>
@@ -1551,30 +1637,162 @@
     </row>
     <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B45" s="11">
         <v>4450</v>
       </c>
       <c r="C45" s="12"/>
     </row>
-    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-    </row>
-    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="3">
-        <f>SUM(B2:B45)</f>
-        <v>219435</v>
-      </c>
-      <c r="C48" s="3">
-        <f>SUM(C2:C37)</f>
-        <v>49505</v>
-      </c>
-      <c r="D48" s="3"/>
+    <row r="46" spans="1:4" ht="33" x14ac:dyDescent="0.35">
+      <c r="A46" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="11">
+        <v>284</v>
+      </c>
+      <c r="C46" s="12"/>
+    </row>
+    <row r="47" spans="1:4" ht="33" x14ac:dyDescent="0.35">
+      <c r="A47" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="11">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="11">
+        <v>265</v>
+      </c>
+      <c r="D48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="11">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="33" x14ac:dyDescent="0.35">
+      <c r="A50" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="11">
+        <v>133</v>
+      </c>
+      <c r="D50" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="33" x14ac:dyDescent="0.35">
+      <c r="A51" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="11">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="33" x14ac:dyDescent="0.35">
+      <c r="A52" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" s="11">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="11">
+        <v>284.7</v>
+      </c>
+      <c r="D53">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" s="11">
+        <v>1979.31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="33" x14ac:dyDescent="0.35">
+      <c r="A55" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="33" x14ac:dyDescent="0.35">
+      <c r="A56" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="33" x14ac:dyDescent="0.35">
+      <c r="A57" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="33" x14ac:dyDescent="0.35">
+      <c r="A58" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="11">
+        <v>6360</v>
+      </c>
+      <c r="C60">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="3">
+        <f>SUM(B2:B60)</f>
+        <v>234037.91</v>
+      </c>
+      <c r="C62" s="3">
+        <f>SUM(C2:C60)</f>
+        <v>40855</v>
+      </c>
+      <c r="D62" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1585,10 +1803,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1599,13 +1817,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>5</v>
@@ -1613,63 +1831,63 @@
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="C2" s="1">
         <v>2000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="C3" s="1">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="C4" s="1">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="C5" s="1">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1">
         <v>5000</v>
@@ -1678,40 +1896,40 @@
         <v>5000</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1">
-        <v>6000</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1">
-        <v>6000</v>
+        <v>100</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="C8" s="1">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1">
         <v>5000</v>
@@ -1720,151 +1938,25 @@
         <v>5000</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1200</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>53</v>
+      <c r="A11" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B11" s="1">
-        <v>5000</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="1">
-        <v>500</v>
-      </c>
-      <c r="C13" s="1">
-        <v>500</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="1">
-        <v>100</v>
-      </c>
-      <c r="C14" s="1">
-        <v>100</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="1">
-        <v>100</v>
-      </c>
-      <c r="C15" s="1">
-        <v>100</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="1">
-        <v>5000</v>
-      </c>
-      <c r="C17" s="1">
-        <v>5000</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="1">
-        <f>SUM(B2:B18)</f>
-        <v>49900</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+        <f>SUM(B2:B9)</f>
+        <v>34100</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1888,13 +1980,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>5</v>
@@ -1934,7 +2026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1947,10 +2039,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>5</v>
@@ -1958,18 +2050,18 @@
     </row>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B2" s="8">
         <v>34</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B3" s="8">
         <v>5</v>
@@ -1980,7 +2072,7 @@
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B4" s="8">
         <v>1</v>
@@ -1989,7 +2081,7 @@
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B5" s="8">
         <v>8</v>
@@ -1998,7 +2090,7 @@
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B6" s="8">
         <v>4</v>
@@ -2007,7 +2099,7 @@
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B7" s="8">
         <v>2</v>
@@ -2016,7 +2108,7 @@
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B8" s="8">
         <v>2</v>
@@ -2025,7 +2117,7 @@
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
@@ -2034,7 +2126,7 @@
     </row>
     <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B10" s="8">
         <v>4</v>
@@ -2043,7 +2135,7 @@
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
@@ -2052,7 +2144,7 @@
     </row>
     <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B12" s="8">
         <v>1</v>
@@ -2061,7 +2153,7 @@
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B13" s="8">
         <v>5</v>
@@ -2075,7 +2167,7 @@
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="8">
         <f>SUM(B2:B14)</f>
@@ -2106,18 +2198,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
@@ -2126,40 +2218,40 @@
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B3" s="8">
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B4" s="8">
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B6" s="8">
         <v>1</v>
@@ -2168,18 +2260,18 @@
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B7" s="8">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
@@ -2188,13 +2280,13 @@
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B9" s="8">
         <v>2</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
